--- a/7. Перечень.xlsx
+++ b/7. Перечень.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Documents\Курсовая Баюра\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\One\Documents\GitHub\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F658B653-DBEA-4725-A40A-EA104884DD2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94674756-4E90-4FC9-BAEC-A03C01AF9963}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D9A99627-5FFA-4DD8-9CEB-A65D8193D389}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>ПКП 6312-109</t>
   </si>
@@ -81,18 +75,6 @@
     <t>SA</t>
   </si>
   <si>
-    <t>KM1</t>
-  </si>
-  <si>
-    <t>KM2</t>
-  </si>
-  <si>
-    <t>KM3</t>
-  </si>
-  <si>
-    <t>KM4</t>
-  </si>
-  <si>
     <t>KF1</t>
   </si>
   <si>
@@ -123,12 +105,6 @@
     <t>HL1..HL9</t>
   </si>
   <si>
-    <t>SK1</t>
-  </si>
-  <si>
-    <t>SK2</t>
-  </si>
-  <si>
     <t>ПКЕ-1122 ТУ 16, 642, 006-83 Iн = 6,3 А</t>
   </si>
   <si>
@@ -142,6 +118,21 @@
   </si>
   <si>
     <t>ФУЗМ-3</t>
+  </si>
+  <si>
+    <t>Schneider Electric EASY 9 3П 20А С 4,5кА 400В</t>
+  </si>
+  <si>
+    <t>ПКП10-33/О 10А "1-0-2" 3Р/400В IEK</t>
+  </si>
+  <si>
+    <t>ОВЕН ПДУ-1.1</t>
+  </si>
+  <si>
+    <t>ПТР-2-04 ТУ 25.63.345-70</t>
+  </si>
+  <si>
+    <t>SK1, SK2</t>
   </si>
 </sst>
 </file>
@@ -172,7 +163,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -219,20 +211,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -547,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0E5EBD-99FB-443B-AC56-9591EC17E9A3}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,91 +552,91 @@
     <col min="3" max="3" width="9.88671875" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="56.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="53.6640625" customWidth="1"/>
     <col min="9" max="9" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -660,7 +652,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="G11" s="6" t="s">
         <v>11</v>
@@ -668,192 +660,184 @@
       <c r="H11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="G14" s="8" t="s">
+      <c r="H13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G15" s="8" t="s">
+      <c r="H14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="8" t="s">
+      <c r="H15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G17" s="8" t="s">
+      <c r="H16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G18" s="8" t="s">
+      <c r="H17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G19" s="8" t="s">
+      <c r="H18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G19" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G20" s="8" t="s">
+      <c r="H19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="G24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
+      <c r="H24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="8"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="8"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
